--- a/rhla_analysis/rhla1_6_normal_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03691150610129293</v>
+        <v>0.03691150610129289</v>
       </c>
       <c r="B2" t="n">
         <v>0.2342280679120866</v>
@@ -466,12 +466,12 @@
         <v>0.08995247793618466</v>
       </c>
       <c r="D2" t="n">
-        <v>6.345665421218944</v>
+        <v>6.34566542121895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01341323271765044</v>
+        <v>0.01341323271765053</v>
       </c>
       <c r="B3" t="n">
         <v>0.274534898674792</v>
@@ -480,12 +480,12 @@
         <v>0.08859470468431772</v>
       </c>
       <c r="D3" t="n">
-        <v>20.46746704942592</v>
+        <v>20.46746704942578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02704257138999388</v>
+        <v>0.02704257138999392</v>
       </c>
       <c r="B4" t="n">
         <v>0.2215595190258828</v>
@@ -494,12 +494,12 @@
         <v>0.09843856076035302</v>
       </c>
       <c r="D4" t="n">
-        <v>8.19299007593127</v>
+        <v>8.192990075931259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01170496826105078</v>
+        <v>0.0117049682610508</v>
       </c>
       <c r="B5" t="n">
         <v>0.2305415208411275</v>
@@ -508,12 +508,12 @@
         <v>0.1072640868974881</v>
       </c>
       <c r="D5" t="n">
-        <v>19.69603980971677</v>
+        <v>19.69603980971674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01657764378034476</v>
+        <v>0.0165776437803448</v>
       </c>
       <c r="B6" t="n">
         <v>0.2196145076328678</v>
@@ -522,26 +522,26 @@
         <v>0.1004752206381534</v>
       </c>
       <c r="D6" t="n">
-        <v>13.24763099887894</v>
+        <v>13.24763099887891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02648636199247552</v>
+        <v>0.02648636199247542</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2437819338252065</v>
+        <v>0.2437819338252066</v>
       </c>
       <c r="C7" t="n">
         <v>0.1011541072640869</v>
       </c>
       <c r="D7" t="n">
-        <v>9.204055048951693</v>
+        <v>9.20405504895173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01077010649155104</v>
+        <v>0.01077010649155106</v>
       </c>
       <c r="B8" t="n">
         <v>0.2553764816740198</v>
@@ -550,12 +550,12 @@
         <v>0.103530210454854</v>
       </c>
       <c r="D8" t="n">
-        <v>23.71160228307476</v>
+        <v>23.71160228307471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01853737551732234</v>
+        <v>0.01853737551732228</v>
       </c>
       <c r="B9" t="n">
         <v>0.2699561741664571</v>
@@ -564,12 +564,12 @@
         <v>0.0923285811269518</v>
       </c>
       <c r="D9" t="n">
-        <v>14.56280442256755</v>
+        <v>14.56280442256759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01719204513105528</v>
+        <v>0.01719204513105526</v>
       </c>
       <c r="B10" t="n">
         <v>0.2636302361566273</v>
@@ -578,12 +578,12 @@
         <v>0.1137135098438561</v>
       </c>
       <c r="D10" t="n">
-        <v>15.33443136909943</v>
+        <v>15.33443136909946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.021174247656524</v>
+        <v>0.0211742476565239</v>
       </c>
       <c r="B11" t="n">
         <v>0.2605888078416067</v>
@@ -592,7 +592,7 @@
         <v>0.08859470468431772</v>
       </c>
       <c r="D11" t="n">
-        <v>12.30687446698096</v>
+        <v>12.30687446698102</v>
       </c>
     </row>
   </sheetData>
